--- a/src/test/resources/com/abcdef/springboot3withdrools/ruleunit/order/customer-rules.drl.xlsx
+++ b/src/test/resources/com/abcdef/springboot3withdrools/ruleunit/order/customer-rules.drl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yli25/Downloads/STS4/springpr/springboot3withapachedrools/src/test/resources/com/abcdef/springboot3withdrools/ruleunit/order/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8874951F-6B55-FC48-AA77-EE2FF3D63F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4000F3B4-893F-2848-989C-979B45906E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="-23600" windowWidth="44160" windowHeight="22020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23340" yWindow="-23600" windowWidth="44160" windowHeight="22020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="customer-rules" sheetId="1" r:id="rId1"/>
@@ -528,41 +528,41 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -873,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="177" zoomScaleNormal="177" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="177" zoomScaleNormal="177" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -884,8 +884,8 @@
     <col min="3" max="3" width="25.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
@@ -985,33 +985,33 @@
     </row>
     <row r="8" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22" t="s">
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24" t="s">
+      <c r="F9" s="21"/>
+      <c r="G9" s="22" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       <c r="F10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="23" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1040,29 +1040,29 @@
       <c r="A11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27" t="s">
+      <c r="B11" s="24"/>
+      <c r="C11" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="28">
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="26">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="28">
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="26">
         <v>3</v>
       </c>
     </row>
@@ -1070,29 +1070,29 @@
       <c r="A13" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27">
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25">
         <v>10000</v>
       </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="28">
+      <c r="F13" s="25"/>
+      <c r="G13" s="26">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32">
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="30">
         <v>10</v>
       </c>
     </row>
